--- a/src/main/webapp/WEB-INF/template/scholarshipTotalPayList.xlsx
+++ b/src/main/webapp/WEB-INF/template/scholarshipTotalPayList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>강의 : ${scholarshipList[0].lesNm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>회원 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,27 +59,23 @@
   </si>
   <si>
     <t>${scholarshipList.userTel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${countList}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODEMAKER 완강 회원 장학금 지급 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 : ${scholarshipList[0].lesNm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총 인원 수 : ${count}
 총 지급 액 : ${totalPay}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODEMAKER 회원 통합 장학금 지급 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${scholarshipList.schlState}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,62 +571,70 @@
     <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+    <row r="4" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="7"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
